--- a/data/trans_orig/IP07C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84CF120-91CD-4A3B-8BB8-533D94E2E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{531AD859-84AD-4EEA-8E7F-78F34EBECD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D436C81D-4F98-41F8-B710-03774DAA1E78}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2DC7AC97-2F83-49BB-B150-7EA369FEAD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,177 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
     <t>2,85%</t>
   </si>
   <si>
@@ -118,33 +268,6 @@
     <t>5,38%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>31,6%</t>
   </si>
   <si>
@@ -172,24 +295,6 @@
     <t>34,63%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
     <t>64,18%</t>
   </si>
   <si>
@@ -217,109 +322,34 @@
     <t>67,38%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>3,17%</t>
@@ -349,24 +379,6 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>29,5%</t>
   </si>
   <si>
@@ -394,18 +406,6 @@
     <t>33,53%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>66,22%</t>
   </si>
   <si>
@@ -436,6 +436,132 @@
     <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>2,7%</t>
   </si>
   <si>
@@ -460,30 +586,6 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>35,58%</t>
   </si>
   <si>
@@ -511,21 +613,6 @@
     <t>39,24%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
     <t>60,42%</t>
   </si>
   <si>
@@ -550,91 +637,37 @@
     <t>55,83%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>3,02%</t>
@@ -655,18 +688,6 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
     <t>34,97%</t>
   </si>
   <si>
@@ -694,27 +715,6 @@
     <t>38,94%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>60,98%</t>
   </si>
   <si>
@@ -745,6 +745,105 @@
     <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>2,93%</t>
   </si>
   <si>
@@ -763,15 +862,6 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
     <t>38,42%</t>
   </si>
   <si>
@@ -799,18 +889,6 @@
     <t>41,59%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
     <t>57,83%</t>
   </si>
   <si>
@@ -838,82 +916,19 @@
     <t>60,79%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>2,68%</t>
@@ -943,15 +958,6 @@
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>36,09%</t>
   </si>
   <si>
@@ -974,12 +980,6 @@
   </si>
   <si>
     <t>39,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
   <si>
     <t>60,59%</t>
@@ -1398,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894E64F9-DE69-4EEF-96B7-246B65E6DA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66C8AFD-7F47-487C-8A11-9A3778EE43C9}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1788,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7142</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1803,34 +1803,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>10949</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>27</v>
-      </c>
-      <c r="N10" s="7">
-        <v>18091</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,49 +1839,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1826</v>
+        <v>642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>3920</v>
+        <v>642</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,49 +1890,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>79159</v>
+        <v>2665</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>74964</v>
+        <v>720</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>231</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>154123</v>
+        <v>3385</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,49 +1941,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>1325</v>
+        <v>12174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7">
+        <v>17032</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="7">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
       <c r="N13" s="7">
-        <v>1325</v>
+        <v>29207</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,49 +1992,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>160789</v>
+        <v>44229</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30488</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="7">
+        <v>112</v>
+      </c>
+      <c r="N14" s="7">
+        <v>74717</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="7">
-        <v>227</v>
-      </c>
-      <c r="I14" s="7">
-        <v>153295</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="7">
-        <v>468</v>
-      </c>
-      <c r="N14" s="7">
-        <v>314084</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,102 +2043,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>250510</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241034</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>734</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>491544</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2665</v>
+        <v>1325</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>3385</v>
+        <v>1325</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,49 +2147,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>642</v>
+        <v>1826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>642</v>
+        <v>3920</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,49 +2198,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>12174</v>
+        <v>7142</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="7">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10949</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="7">
+        <v>27</v>
+      </c>
+      <c r="N18" s="7">
+        <v>18091</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="7">
-        <v>26</v>
-      </c>
-      <c r="I18" s="7">
-        <v>17032</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="7">
-        <v>45</v>
-      </c>
-      <c r="N18" s="7">
-        <v>29207</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,46 +2249,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>79159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>74964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="7">
+        <v>231</v>
+      </c>
+      <c r="N19" s="7">
+        <v>154123</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>84</v>
@@ -2300,10 +2300,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>44229</v>
+        <v>160789</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>85</v>
@@ -2315,10 +2315,10 @@
         <v>87</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="I20" s="7">
-        <v>30488</v>
+        <v>153295</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>88</v>
@@ -2330,10 +2330,10 @@
         <v>90</v>
       </c>
       <c r="M20" s="7">
-        <v>112</v>
+        <v>468</v>
       </c>
       <c r="N20" s="7">
-        <v>74717</v>
+        <v>314084</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>91</v>
@@ -2351,49 +2351,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>250510</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241034</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>734</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>491544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,49 +2404,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>9807</v>
+        <v>1325</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="7">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1325</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="7">
-        <v>11669</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="7">
-        <v>32</v>
-      </c>
-      <c r="N22" s="7">
-        <v>21477</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2461,13 @@
         <v>2095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2476,13 +2476,13 @@
         <v>2467</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2491,13 +2491,13 @@
         <v>4562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +2506,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>91333</v>
+        <v>9807</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="7">
+        <v>17</v>
+      </c>
+      <c r="I24" s="7">
+        <v>11669</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>32</v>
+      </c>
+      <c r="N24" s="7">
+        <v>21477</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="7">
-        <v>138</v>
-      </c>
-      <c r="I24" s="7">
-        <v>91996</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="7">
-        <v>276</v>
-      </c>
-      <c r="N24" s="7">
-        <v>183330</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,46 +2557,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="D25" s="7">
-        <v>1325</v>
+        <v>91333</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="7">
+        <v>138</v>
+      </c>
+      <c r="I25" s="7">
+        <v>91996</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>276</v>
+      </c>
+      <c r="N25" s="7">
+        <v>183330</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1325</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>121</v>
@@ -2665,13 +2665,13 @@
         <v>309578</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -2680,13 +2680,13 @@
         <v>289916</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>897</v>
@@ -2695,13 +2695,13 @@
         <v>599495</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB192055-9303-487C-A050-B7335045A2AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5A17F7-D689-451C-BC2D-3C58CBDD4441}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3110,49 +3110,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7020</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9593</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" s="7">
-        <v>25</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16613</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,49 +3161,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2798</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,49 +3212,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>92480</v>
+        <v>2836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>86908</v>
+        <v>612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>179389</v>
+        <v>3448</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,49 +3263,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>1448</v>
+        <v>21538</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>1991</v>
+        <v>27965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>3439</v>
+        <v>49504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,49 +3314,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>157030</v>
+        <v>41800</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>141516</v>
+        <v>40790</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>434</v>
+        <v>116</v>
       </c>
       <c r="N14" s="7">
-        <v>298546</v>
+        <v>82590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,102 +3365,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>259904</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>242806</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>728</v>
+        <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>502710</v>
+        <v>135542</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2836</v>
+        <v>1448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>612</v>
+        <v>1991</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>3448</v>
+        <v>3439</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,49 +3469,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>4723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,49 +3520,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>21538</v>
+        <v>7020</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>27965</v>
+        <v>9593</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>49504</v>
+        <v>16613</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,49 +3571,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>92480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>86908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>179389</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,49 +3622,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="D20" s="7">
-        <v>41800</v>
+        <v>157030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="I20" s="7">
-        <v>40790</v>
+        <v>141516</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
-        <v>116</v>
+        <v>434</v>
       </c>
       <c r="N20" s="7">
-        <v>82590</v>
+        <v>298546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,49 +3673,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>259904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>242806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>190</v>
+        <v>728</v>
       </c>
       <c r="N21" s="7">
-        <v>135542</v>
+        <v>502710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,49 +3726,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>9856</v>
+        <v>1448</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1991</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="7">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7">
-        <v>10205</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>202</v>
       </c>
       <c r="M22" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>20061</v>
+        <v>3439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3783,13 @@
         <v>1925</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3798,13 +3798,13 @@
         <v>2798</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3813,13 +3813,13 @@
         <v>4723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,49 +3828,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>114019</v>
+        <v>9856</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>114874</v>
+        <v>10205</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>212</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>30</v>
+      </c>
+      <c r="N24" s="7">
+        <v>20061</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M24" s="7">
-        <v>326</v>
-      </c>
-      <c r="N24" s="7">
-        <v>228892</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,25 +3879,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="D25" s="7">
-        <v>1448</v>
+        <v>114019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>218</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="I25" s="7">
-        <v>1991</v>
+        <v>114874</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>219</v>
@@ -3909,10 +3909,10 @@
         <v>221</v>
       </c>
       <c r="M25" s="7">
-        <v>5</v>
+        <v>326</v>
       </c>
       <c r="N25" s="7">
-        <v>3439</v>
+        <v>228892</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>222</v>
@@ -3987,13 +3987,13 @@
         <v>326078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>444</v>
@@ -4002,13 +4002,13 @@
         <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>918</v>
@@ -4017,13 +4017,13 @@
         <v>638252</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +4042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A7BCEC-D480-4A7F-97B0-68A5781FC62B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052A4FEA-769B-4357-B695-B4AAAD55B1A8}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4432,49 +4432,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>8016</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12064</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M10" s="7">
-        <v>28</v>
-      </c>
-      <c r="N10" s="7">
-        <v>20079</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,49 +4483,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,49 +4534,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>105009</v>
+        <v>1331</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H12" s="7">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>97426</v>
+        <v>2821</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>202434</v>
+        <v>4151</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,49 +4585,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>1490</v>
+        <v>21034</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>759</v>
+        <v>27365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>2250</v>
+        <v>48398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,49 +4636,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7">
-        <v>158063</v>
+        <v>53502</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="7">
+        <v>86</v>
+      </c>
+      <c r="I14" s="7">
+        <v>56869</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>163</v>
+      </c>
+      <c r="N14" s="7">
+        <v>110371</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H14" s="7">
-        <v>207</v>
-      </c>
-      <c r="I14" s="7">
-        <v>147867</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M14" s="7">
-        <v>418</v>
-      </c>
-      <c r="N14" s="7">
-        <v>305930</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,54 +4687,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>531976</v>
+        <v>162921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4743,46 +4743,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1331</v>
+        <v>1490</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>2821</v>
+        <v>759</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>4151</v>
+        <v>2250</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,49 +4791,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,49 +4842,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>21034</v>
+        <v>8016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H18" s="7">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>27365</v>
+        <v>12064</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7">
-        <v>48398</v>
+        <v>20079</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,49 +4893,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>105009</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>97426</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>202434</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,10 +4944,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="D20" s="7">
-        <v>53502</v>
+        <v>158063</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>283</v>
@@ -4959,10 +4959,10 @@
         <v>285</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="I20" s="7">
-        <v>56869</v>
+        <v>147867</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>286</v>
@@ -4974,10 +4974,10 @@
         <v>288</v>
       </c>
       <c r="M20" s="7">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="N20" s="7">
-        <v>110371</v>
+        <v>305930</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>289</v>
@@ -4995,49 +4995,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>162921</v>
+        <v>531976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,49 +5048,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>9347</v>
+        <v>1490</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>759</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2250</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H22" s="7">
-        <v>22</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14884</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M22" s="7">
-        <v>35</v>
-      </c>
-      <c r="N22" s="7">
-        <v>24231</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5105,13 @@
         <v>759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5120,13 +5120,13 @@
         <v>524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5135,13 +5135,13 @@
         <v>1283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,49 +5150,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>126042</v>
+        <v>9347</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>14884</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M24" s="7">
+        <v>35</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24231</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H24" s="7">
-        <v>176</v>
-      </c>
-      <c r="I24" s="7">
-        <v>124790</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M24" s="7">
-        <v>352</v>
-      </c>
-      <c r="N24" s="7">
-        <v>250833</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,49 +5201,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="D25" s="7">
-        <v>1490</v>
+        <v>126042</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H25" s="7">
+        <v>176</v>
+      </c>
+      <c r="I25" s="7">
+        <v>124790</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" s="7">
+        <v>352</v>
+      </c>
+      <c r="N25" s="7">
+        <v>250833</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>759</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2250</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5309,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5324,13 +5324,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>973</v>
@@ -5339,13 +5339,13 @@
         <v>694897</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531AD859-84AD-4EEA-8E7F-78F34EBECD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{495E6BBA-607C-4858-ADD5-32C15A958DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2DC7AC97-2F83-49BB-B150-7EA369FEAD9B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64907278-414D-4C88-835E-D6C3DF92B491}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="332">
   <si>
     <t>Menores según frecuencia de sentirse  alegre en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -67,28 +67,112 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -97,916 +181,859 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1044,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1113,39 +1140,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1197,7 +1224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1308,13 +1335,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1323,6 +1343,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1387,19 +1414,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66C8AFD-7F47-487C-8A11-9A3778EE43C9}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E6D3BA-601D-449C-8280-423F410ADB28}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1790,47 +1837,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,47 +1882,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,49 +1925,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,49 +1970,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7">
-        <v>12174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
-      </c>
-      <c r="N13" s="7">
-        <v>29207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,49 +2015,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7">
-        <v>44229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>112</v>
-      </c>
-      <c r="N14" s="7">
-        <v>74717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,102 +2060,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7">
-        <v>1325</v>
+        <v>79443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>72089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="N16" s="7">
-        <v>1325</v>
+        <v>151532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,49 +2158,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>2095</v>
+        <v>38147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>1826</v>
+        <v>35041</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="N17" s="7">
-        <v>3920</v>
+        <v>73188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,49 +2209,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>7142</v>
+        <v>5224</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>10949</v>
+        <v>3403</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>18091</v>
+        <v>8627</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,49 +2260,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>79159</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>74964</v>
+        <v>1178</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>154123</v>
+        <v>1178</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,49 +2311,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>160789</v>
+        <v>667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>153295</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>314084</v>
+        <v>667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,102 +2362,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>250510</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241034</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>734</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>491544</v>
+        <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="D22" s="7">
-        <v>1325</v>
+        <v>125574</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>111695</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>353</v>
       </c>
       <c r="N22" s="7">
-        <v>1325</v>
+        <v>237269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,49 +2466,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7">
-        <v>2095</v>
+        <v>53186</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="I23" s="7">
-        <v>2467</v>
+        <v>56956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7">
-        <v>4562</v>
+        <v>110142</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +2517,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>9807</v>
+        <v>4583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>11669</v>
+        <v>8267</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>21477</v>
+        <v>12850</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,49 +2568,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>91333</v>
+        <v>2095</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>91996</v>
+        <v>1289</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
-        <v>276</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>183330</v>
+        <v>3384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,49 +2619,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>308</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>205018</v>
+        <v>659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>183783</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="M26" s="7">
-        <v>580</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>388801</v>
+        <v>659</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,55 +2670,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>263</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178206</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>543</v>
+      </c>
+      <c r="N27" s="7">
+        <v>364303</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>308</v>
+      </c>
+      <c r="D28" s="7">
+        <v>205018</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="7">
+        <v>272</v>
+      </c>
+      <c r="I28" s="7">
+        <v>183783</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="7">
+        <v>580</v>
+      </c>
+      <c r="N28" s="7">
+        <v>388801</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>138</v>
+      </c>
+      <c r="D29" s="7">
+        <v>91333</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="7">
+        <v>138</v>
+      </c>
+      <c r="I29" s="7">
+        <v>91996</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="7">
+        <v>276</v>
+      </c>
+      <c r="N29" s="7">
+        <v>183330</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9807</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="7">
+        <v>17</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11669</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="7">
+        <v>32</v>
+      </c>
+      <c r="N30" s="7">
+        <v>21477</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2095</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2467</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4562</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1325</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1325</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>309578</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>431</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>289916</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>897</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>599495</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2720,8 +3045,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5A17F7-D689-451C-BC2D-3C58CBDD4441}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925800DF-3A7C-404D-8A97-4B9226CABFFF}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2737,7 +3062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3112,47 +3437,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,47 +3482,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,49 +3525,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2836</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,49 +3570,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7">
-        <v>21538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
-      </c>
-      <c r="N13" s="7">
-        <v>49504</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,49 +3615,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7">
-        <v>41800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
-      </c>
-      <c r="I14" s="7">
-        <v>40790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>116</v>
-      </c>
-      <c r="N14" s="7">
-        <v>82590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,102 +3660,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>190</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D16" s="7">
-        <v>1448</v>
+        <v>94763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="I16" s="7">
-        <v>1991</v>
+        <v>90159</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="N16" s="7">
-        <v>3439</v>
+        <v>184922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,49 +3758,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>1925</v>
+        <v>51333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>2798</v>
+        <v>51267</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="N17" s="7">
-        <v>4723</v>
+        <v>102600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,46 +3812,46 @@
         <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>7020</v>
+        <v>7162</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>9593</v>
+        <v>5825</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="M18" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>16613</v>
+        <v>12986</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,49 +3860,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>92480</v>
+        <v>722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>86908</v>
+        <v>2120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>179389</v>
+        <v>2841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,49 +3911,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>157030</v>
+        <v>1448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>141516</v>
+        <v>594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
-        <v>434</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>298546</v>
+        <v>2042</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,102 +3962,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>259904</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>242806</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>728</v>
+        <v>437</v>
       </c>
       <c r="N21" s="7">
-        <v>502710</v>
+        <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="D22" s="7">
-        <v>1448</v>
+        <v>104068</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="I22" s="7">
-        <v>1991</v>
+        <v>92147</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>284</v>
       </c>
       <c r="N22" s="7">
-        <v>3439</v>
+        <v>196215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,49 +4066,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D23" s="7">
-        <v>1925</v>
+        <v>62686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="I23" s="7">
-        <v>2798</v>
+        <v>63606</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="N23" s="7">
-        <v>4723</v>
+        <v>126292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,49 +4117,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>9856</v>
+        <v>2694</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>10205</v>
+        <v>4380</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M24" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>20061</v>
+        <v>7075</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,49 +4168,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>114019</v>
+        <v>1204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>114874</v>
+        <v>678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>228892</v>
+        <v>1882</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,49 +4219,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>198830</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
-        <v>259</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>182306</v>
+        <v>1397</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>381137</v>
+        <v>1397</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,55 +4270,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332861</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>291</v>
+      </c>
+      <c r="D28" s="7">
+        <v>198830</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="7">
+        <v>259</v>
+      </c>
+      <c r="I28" s="7">
+        <v>182306</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" s="7">
+        <v>550</v>
+      </c>
+      <c r="N28" s="7">
+        <v>381137</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>163</v>
+      </c>
+      <c r="D29" s="7">
+        <v>114019</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="7">
+        <v>163</v>
+      </c>
+      <c r="I29" s="7">
+        <v>114874</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" s="7">
+        <v>326</v>
+      </c>
+      <c r="N29" s="7">
+        <v>228892</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9856</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10205</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" s="7">
+        <v>30</v>
+      </c>
+      <c r="N30" s="7">
+        <v>20061</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1925</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2798</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4723</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1448</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1991</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3439</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326078</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>444</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>312174</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>918</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>638252</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4042,8 +4645,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052A4FEA-769B-4357-B695-B4AAAD55B1A8}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF54CC7A-5A6E-4950-9B1A-8774304B0F8D}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4059,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4434,47 +5037,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,47 +5082,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,49 +5125,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,49 +5170,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7">
-        <v>21034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>71</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,49 +5215,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>77</v>
-      </c>
-      <c r="D14" s="7">
-        <v>53502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>86</v>
-      </c>
-      <c r="I14" s="7">
-        <v>56869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>163</v>
-      </c>
-      <c r="N14" s="7">
-        <v>110371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,102 +5260,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>241</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="D16" s="7">
-        <v>1490</v>
+        <v>115188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="I16" s="7">
-        <v>759</v>
+        <v>114852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>327</v>
       </c>
       <c r="N16" s="7">
-        <v>2250</v>
+        <v>230040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,49 +5358,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>759</v>
+        <v>58539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>524</v>
+        <v>61651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="N17" s="7">
-        <v>1283</v>
+        <v>120189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,49 +5409,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>8016</v>
+        <v>3398</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>12064</v>
+        <v>4384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>20079</v>
+        <v>7783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,49 +5460,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>105009</v>
+        <v>759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>97426</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>202434</v>
+        <v>759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,49 +5511,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>158063</v>
+        <v>727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>147867</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>305930</v>
+        <v>727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,102 +5562,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>509</v>
       </c>
       <c r="N21" s="7">
-        <v>531976</v>
+        <v>359498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D22" s="7">
-        <v>1490</v>
+        <v>96376</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="I22" s="7">
-        <v>759</v>
+        <v>89884</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="N22" s="7">
-        <v>2250</v>
+        <v>186261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,49 +5666,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7">
-        <v>759</v>
+        <v>67504</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I23" s="7">
-        <v>524</v>
+        <v>63140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="N23" s="7">
-        <v>1283</v>
+        <v>130643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,49 +5717,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>9347</v>
+        <v>5948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H24" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>14884</v>
+        <v>10500</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M24" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>24231</v>
+        <v>16448</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,49 +5768,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>126042</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>124790</v>
+        <v>524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>250833</v>
+        <v>524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,49 +5819,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>211565</v>
+        <v>764</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>204736</v>
+        <v>759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
-        <v>581</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>416301</v>
+        <v>1523</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,55 +5870,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>288</v>
+      </c>
+      <c r="D28" s="7">
+        <v>211565</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" s="7">
+        <v>293</v>
+      </c>
+      <c r="I28" s="7">
+        <v>204736</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M28" s="7">
+        <v>581</v>
+      </c>
+      <c r="N28" s="7">
+        <v>416301</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>176</v>
+      </c>
+      <c r="D29" s="7">
+        <v>126042</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="7">
+        <v>176</v>
+      </c>
+      <c r="I29" s="7">
+        <v>124790</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M29" s="7">
+        <v>352</v>
+      </c>
+      <c r="N29" s="7">
+        <v>250833</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9347</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" s="7">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7">
+        <v>14884</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M30" s="7">
+        <v>35</v>
+      </c>
+      <c r="N30" s="7">
+        <v>24231</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>524</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1283</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1490</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>759</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2250</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345694</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>973</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>694897</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{495E6BBA-607C-4858-ADD5-32C15A958DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43BCE55-039C-45ED-B955-2396A77FBF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64907278-414D-4C88-835E-D6C3DF92B491}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFF942D8-1BDF-49D8-84FF-405A28F39225}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="330">
   <si>
     <t>Menores según frecuencia de sentirse  alegre en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -97,943 +97,937 @@
     <t>64,34%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>30,89%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>26,86%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>36,1%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>4,62%</t>
+    <t>4,33%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,87%</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E6D3BA-601D-449C-8280-423F410ADB28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A64B6-F42B-4A1A-BD33-66C7231508AC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2526,10 +2520,10 @@
         <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -2538,13 +2532,13 @@
         <v>8267</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2553,13 +2547,13 @@
         <v>12850</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2568,13 @@
         <v>2095</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2589,13 +2583,13 @@
         <v>1289</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2604,13 +2598,13 @@
         <v>3384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2619,13 @@
         <v>659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2646,7 +2640,7 @@
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2655,13 +2649,13 @@
         <v>659</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2723,13 @@
         <v>205018</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>272</v>
@@ -2744,13 +2738,13 @@
         <v>183783</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M28" s="7">
         <v>580</v>
@@ -2759,13 +2753,13 @@
         <v>388801</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2774,13 @@
         <v>91333</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -2795,13 +2789,13 @@
         <v>91996</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>276</v>
@@ -2810,13 +2804,13 @@
         <v>183330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2825,13 @@
         <v>9807</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -2846,13 +2840,13 @@
         <v>11669</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -2861,13 +2855,13 @@
         <v>21477</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2876,13 @@
         <v>2095</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2897,13 +2891,13 @@
         <v>2467</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -2912,13 +2906,13 @@
         <v>4562</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2927,13 @@
         <v>1325</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2954,7 +2948,7 @@
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2963,13 +2957,13 @@
         <v>1325</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,7 +3019,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925800DF-3A7C-404D-8A97-4B9226CABFFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9450BB-0057-427F-A044-BD159F06BA62}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3062,7 +3056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3713,13 +3707,13 @@
         <v>94763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -3728,13 +3722,13 @@
         <v>90159</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
@@ -3743,13 +3737,13 @@
         <v>184922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3758,13 @@
         <v>51333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -3779,13 +3773,13 @@
         <v>51267</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -3794,13 +3788,13 @@
         <v>102600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3809,13 @@
         <v>7162</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -3830,13 +3824,13 @@
         <v>5825</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -3845,13 +3839,13 @@
         <v>12986</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3860,13 @@
         <v>722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3881,13 +3875,13 @@
         <v>2120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3896,13 +3890,13 @@
         <v>2841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3911,13 @@
         <v>1448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3932,13 +3926,13 @@
         <v>594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3947,13 +3941,13 @@
         <v>2042</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4015,13 @@
         <v>104068</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -4036,13 +4030,13 @@
         <v>92147</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -4051,13 +4045,13 @@
         <v>196215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4066,13 @@
         <v>62686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -4087,13 +4081,13 @@
         <v>63606</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>182</v>
@@ -4102,13 +4096,13 @@
         <v>126292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4117,13 @@
         <v>2694</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4138,13 +4132,13 @@
         <v>4380</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -4153,13 +4147,13 @@
         <v>7075</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4168,13 @@
         <v>1204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4189,13 +4183,13 @@
         <v>678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4231,7 +4225,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4240,13 +4234,13 @@
         <v>1397</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4255,13 +4249,13 @@
         <v>1397</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4323,13 @@
         <v>198830</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H28" s="7">
         <v>259</v>
@@ -4344,13 +4338,13 @@
         <v>182306</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M28" s="7">
         <v>550</v>
@@ -4359,13 +4353,13 @@
         <v>381137</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4374,13 @@
         <v>114019</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H29" s="7">
         <v>163</v>
@@ -4395,13 +4389,13 @@
         <v>114874</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M29" s="7">
         <v>326</v>
@@ -4410,10 +4404,10 @@
         <v>228892</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>225</v>
@@ -4437,7 +4431,7 @@
         <v>227</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -4446,13 +4440,13 @@
         <v>10205</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -4461,13 +4455,13 @@
         <v>20061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4476,13 @@
         <v>1925</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4497,13 +4491,13 @@
         <v>2798</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4512,13 +4506,13 @@
         <v>4723</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4527,13 @@
         <v>1448</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -4548,13 +4542,13 @@
         <v>1991</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -4566,10 +4560,10 @@
         <v>52</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,7 +4619,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4645,7 +4639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF54CC7A-5A6E-4950-9B1A-8774304B0F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2518D-9121-4A10-A988-A43C032FA991}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4662,7 +4656,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5313,13 +5307,13 @@
         <v>115188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>166</v>
@@ -5328,13 +5322,13 @@
         <v>114852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>327</v>
@@ -5343,13 +5337,13 @@
         <v>230040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5358,13 @@
         <v>58539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>86</v>
@@ -5379,13 +5373,13 @@
         <v>61651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>168</v>
@@ -5394,13 +5388,13 @@
         <v>120189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5409,13 @@
         <v>3398</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5430,13 +5424,13 @@
         <v>4384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5445,13 +5439,13 @@
         <v>7783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5460,13 @@
         <v>759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5487,7 +5481,7 @@
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5496,13 +5490,13 @@
         <v>759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5511,13 @@
         <v>727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5538,7 +5532,7 @@
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5547,13 +5541,13 @@
         <v>727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,10 +5669,10 @@
         <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -5687,13 +5681,13 @@
         <v>63140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>184</v>
@@ -5702,13 +5696,13 @@
         <v>130643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,10 +5717,10 @@
         <v>5948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>291</v>
@@ -5741,10 +5735,10 @@
         <v>292</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -5753,7 +5747,7 @@
         <v>16448</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>295</v>
@@ -5789,13 +5783,13 @@
         <v>524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -5804,13 +5798,13 @@
         <v>524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5819,13 @@
         <v>764</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5840,13 +5834,13 @@
         <v>759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5855,13 +5849,13 @@
         <v>1523</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5923,13 @@
         <v>211565</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>293</v>
@@ -5944,13 +5938,13 @@
         <v>204736</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>581</v>
@@ -5959,13 +5953,13 @@
         <v>416301</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,10 +5977,10 @@
         <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>176</v>
@@ -5995,13 +5989,13 @@
         <v>124790</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>352</v>
@@ -6010,13 +6004,13 @@
         <v>250833</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6025,13 @@
         <v>9347</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -6046,13 +6040,13 @@
         <v>14884</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -6061,13 +6055,13 @@
         <v>24231</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6076,13 @@
         <v>759</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6097,13 +6091,13 @@
         <v>524</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6112,13 +6106,13 @@
         <v>1283</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6127,13 @@
         <v>1490</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6148,13 +6142,13 @@
         <v>759</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6163,13 +6157,13 @@
         <v>2250</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6219,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43BCE55-039C-45ED-B955-2396A77FBF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02775574-6D53-471A-8E8A-A98C093ADAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFF942D8-1BDF-49D8-84FF-405A28F39225}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05E60ED2-48F6-4E9C-937F-0091DD44901A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="332">
   <si>
     <t>Menores según frecuencia de sentirse  alegre en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,940 +94,946 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
     <t>64,34%</t>
   </si>
   <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>30,89%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>63,99%</t>
   </si>
   <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,96%</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A64B6-F42B-4A1A-BD33-66C7231508AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C330C1B-03C3-4188-9BB5-F19E6A593E42}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2101,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>79443</v>
+        <v>72089</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2116,10 +2122,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I16" s="7">
-        <v>72089</v>
+        <v>79443</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2152,10 +2158,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>38147</v>
+        <v>35041</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2167,10 +2173,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>35041</v>
+        <v>38147</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2203,10 +2209,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>5224</v>
+        <v>3403</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2218,10 +2224,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>3403</v>
+        <v>5224</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2254,10 +2260,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2269,16 +2275,16 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1178</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>49</v>
@@ -2293,7 +2299,7 @@
         <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>51</v>
@@ -2305,28 +2311,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>667</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
@@ -2344,7 +2350,7 @@
         <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>56</v>
@@ -2356,25 +2362,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -2409,10 +2415,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7">
-        <v>125574</v>
+        <v>111695</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>59</v>
@@ -2424,10 +2430,10 @@
         <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="I22" s="7">
-        <v>111695</v>
+        <v>125574</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>62</v>
@@ -2460,10 +2466,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D23" s="7">
-        <v>53186</v>
+        <v>56956</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>68</v>
@@ -2475,10 +2481,10 @@
         <v>70</v>
       </c>
       <c r="H23" s="7">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I23" s="7">
-        <v>56956</v>
+        <v>53186</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>71</v>
@@ -2511,10 +2517,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>4583</v>
+        <v>8267</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>77</v>
@@ -2526,10 +2532,10 @@
         <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>8267</v>
+        <v>4583</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>80</v>
@@ -2562,31 +2568,31 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>2095</v>
+        <v>1289</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2095</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1289</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>90</v>
@@ -2613,28 +2619,28 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>94</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
@@ -2652,7 +2658,7 @@
         <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>97</v>
@@ -2664,25 +2670,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>263</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178206</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>263</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178206</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -2717,10 +2723,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D28" s="7">
-        <v>205018</v>
+        <v>183783</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>98</v>
@@ -2732,10 +2738,10 @@
         <v>100</v>
       </c>
       <c r="H28" s="7">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="I28" s="7">
-        <v>183783</v>
+        <v>205018</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>101</v>
@@ -2771,7 +2777,7 @@
         <v>138</v>
       </c>
       <c r="D29" s="7">
-        <v>91333</v>
+        <v>91996</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>107</v>
@@ -2786,7 +2792,7 @@
         <v>138</v>
       </c>
       <c r="I29" s="7">
-        <v>91996</v>
+        <v>91333</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>110</v>
@@ -2819,10 +2825,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>9807</v>
+        <v>11669</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>116</v>
@@ -2834,10 +2840,10 @@
         <v>118</v>
       </c>
       <c r="H30" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>11669</v>
+        <v>9807</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>119</v>
@@ -2870,10 +2876,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>2095</v>
+        <v>2467</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>125</v>
@@ -2885,19 +2891,19 @@
         <v>127</v>
       </c>
       <c r="H31" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>2467</v>
+        <v>2095</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>128</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -2906,13 +2912,13 @@
         <v>4562</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,34 +2927,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1325</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2957,13 +2963,13 @@
         <v>1325</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,25 +2978,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>431</v>
+      </c>
+      <c r="D33" s="7">
+        <v>289916</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>466</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>309578</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>431</v>
-      </c>
-      <c r="I33" s="7">
-        <v>289916</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -3019,7 +3025,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9450BB-0057-427F-A044-BD159F06BA62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517A294F-FEC9-44A2-987D-84CE11E74913}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3056,7 +3062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3701,34 +3707,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>129</v>
+      </c>
+      <c r="D16" s="7">
+        <v>90159</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="7">
         <v>137</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>94763</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="7">
-        <v>129</v>
-      </c>
-      <c r="I16" s="7">
-        <v>90159</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
@@ -3737,13 +3743,13 @@
         <v>184922</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,31 +3761,31 @@
         <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>51333</v>
+        <v>51267</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>51267</v>
+        <v>51333</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>144</v>
@@ -3788,13 +3794,13 @@
         <v>102600</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,34 +3809,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
+        <v>5825</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="7">
+        <v>11</v>
+      </c>
+      <c r="I18" s="7">
         <v>7162</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5825</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -3839,13 +3845,13 @@
         <v>12986</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,34 +3860,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2120</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>722</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2120</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3893,10 +3899,10 @@
         <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,34 +3911,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>594</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1448</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>594</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3941,13 +3947,13 @@
         <v>2042</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,25 +3962,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -4009,34 +4015,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>130</v>
+      </c>
+      <c r="D22" s="7">
+        <v>92147</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="7">
         <v>154</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>104068</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="7">
-        <v>130</v>
-      </c>
-      <c r="I22" s="7">
-        <v>92147</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>284</v>
@@ -4045,13 +4051,13 @@
         <v>196215</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,31 +4069,31 @@
         <v>91</v>
       </c>
       <c r="D23" s="7">
-        <v>62686</v>
+        <v>63606</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
       </c>
       <c r="I23" s="7">
-        <v>63606</v>
+        <v>62686</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>182</v>
@@ -4096,13 +4102,13 @@
         <v>126292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,34 +4117,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4380</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="7">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>2694</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4380</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -4147,13 +4153,13 @@
         <v>7075</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,34 +4168,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>678</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1204</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>678</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -4198,13 +4204,13 @@
         <v>1882</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,34 +4219,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1397</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4252,10 +4258,10 @@
         <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,25 +4270,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -4317,13 +4323,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D28" s="7">
-        <v>198830</v>
+        <v>182306</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>209</v>
@@ -4332,19 +4338,19 @@
         <v>210</v>
       </c>
       <c r="H28" s="7">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="I28" s="7">
-        <v>182306</v>
+        <v>198830</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M28" s="7">
         <v>550</v>
@@ -4353,13 +4359,13 @@
         <v>381137</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,31 +4377,31 @@
         <v>163</v>
       </c>
       <c r="D29" s="7">
-        <v>114019</v>
+        <v>114874</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>163</v>
       </c>
       <c r="I29" s="7">
-        <v>114874</v>
+        <v>114019</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M29" s="7">
         <v>326</v>
@@ -4404,13 +4410,13 @@
         <v>228892</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,31 +4428,31 @@
         <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>9856</v>
+        <v>10205</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>10205</v>
+        <v>9856</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -4455,13 +4461,13 @@
         <v>20061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,34 +4476,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2798</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="7">
         <v>3</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>1925</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2798</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4506,13 +4512,13 @@
         <v>4723</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,34 +4527,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1991</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1448</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1991</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -4557,13 +4563,13 @@
         <v>3439</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,25 +4578,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>444</v>
+      </c>
+      <c r="D33" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>474</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326078</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>444</v>
-      </c>
-      <c r="I33" s="7">
-        <v>312174</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -4619,7 +4625,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +4645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2518D-9121-4A10-A988-A43C032FA991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333C5D59-A99A-4A07-90F1-11D602F41F4C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4656,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5301,34 +5307,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>166</v>
+      </c>
+      <c r="D16" s="7">
+        <v>114852</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="7">
         <v>161</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>115188</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="7">
-        <v>166</v>
-      </c>
-      <c r="I16" s="7">
-        <v>114852</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>327</v>
@@ -5337,13 +5343,13 @@
         <v>230040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,34 +5358,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7">
+        <v>61651</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="7">
         <v>82</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>58539</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H17" s="7">
-        <v>86</v>
-      </c>
-      <c r="I17" s="7">
-        <v>61651</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>168</v>
@@ -5388,7 +5394,7 @@
         <v>120189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>260</v>
@@ -5403,34 +5409,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>3398</v>
+        <v>4384</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>263</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>4384</v>
+        <v>3398</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5439,7 +5445,7 @@
         <v>7783</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>266</v>
@@ -5454,34 +5460,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>759</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5493,10 +5499,10 @@
         <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,34 +5511,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>727</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5541,13 +5547,13 @@
         <v>727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,25 +5562,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -5612,31 +5618,31 @@
         <v>127</v>
       </c>
       <c r="D22" s="7">
-        <v>96376</v>
+        <v>89884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
       </c>
       <c r="I22" s="7">
-        <v>89884</v>
+        <v>96376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -5645,13 +5651,13 @@
         <v>186261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,34 +5666,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>90</v>
+      </c>
+      <c r="D23" s="7">
+        <v>63140</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H23" s="7">
         <v>94</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>67504</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" s="7">
-        <v>90</v>
-      </c>
-      <c r="I23" s="7">
-        <v>63140</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>184</v>
@@ -5696,10 +5702,10 @@
         <v>130643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>289</v>
@@ -5711,34 +5717,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>5948</v>
+        <v>10500</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>290</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>10500</v>
+        <v>5948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -5747,13 +5753,13 @@
         <v>16448</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>296</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5768,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
@@ -5777,16 +5783,16 @@
         <v>297</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>298</v>
@@ -5801,7 +5807,7 @@
         <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>300</v>
@@ -5816,31 +5822,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5849,10 +5855,10 @@
         <v>1523</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>303</v>
@@ -5864,25 +5870,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -5917,10 +5923,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D28" s="7">
-        <v>211565</v>
+        <v>204736</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>304</v>
@@ -5929,22 +5935,22 @@
         <v>305</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="7">
+        <v>288</v>
+      </c>
+      <c r="I28" s="7">
+        <v>211565</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H28" s="7">
-        <v>293</v>
-      </c>
-      <c r="I28" s="7">
-        <v>204736</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>581</v>
@@ -5953,13 +5959,13 @@
         <v>416301</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,7 +5977,7 @@
         <v>176</v>
       </c>
       <c r="D29" s="7">
-        <v>126042</v>
+        <v>124790</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>312</v>
@@ -5986,7 +5992,7 @@
         <v>176</v>
       </c>
       <c r="I29" s="7">
-        <v>124790</v>
+        <v>126042</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>315</v>
@@ -6004,7 +6010,7 @@
         <v>250833</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>318</v>
@@ -6019,34 +6025,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>9347</v>
+        <v>14884</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>320</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H30" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I30" s="7">
-        <v>14884</v>
+        <v>9347</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -6055,10 +6061,10 @@
         <v>24231</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>325</v>
@@ -6073,31 +6079,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>759</v>
+        <v>524</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>326</v>
+        <v>126</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6109,10 +6115,10 @@
         <v>96</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,34 +6127,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>759</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1490</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>759</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6157,13 +6163,13 @@
         <v>2250</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,25 +6178,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>493</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>493</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345694</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -6219,7 +6225,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
